--- a/documentation/sprint3/sem3_PI_2024-2025_TeamSelf-Assessment.xlsx
+++ b/documentation/sprint3/sem3_PI_2024-2025_TeamSelf-Assessment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team and Self Assessment" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,9 +13,6 @@
     <sheet name="Project Development" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Project Management" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="ItemEval" vbProcedure="false">[1]!Table2[itemeval]</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="210">
   <si>
     <t xml:space="preserve">LAPR3 Project Team and Self-assessment v4.0</t>
   </si>
@@ -301,6 +298,9 @@
     <t xml:space="preserve">Retirada do Sprint 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -355,10 +355,97 @@
     <t xml:space="preserve">USBD19</t>
   </si>
   <si>
-    <t xml:space="preserve">USLP04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USLP05</t>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USLP06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USLP07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USLP08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USEI24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBD30</t>
   </si>
   <si>
     <t xml:space="preserve">Project Development Self-Assessment</t>
@@ -674,7 +761,7 @@
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -735,12 +822,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1053,280 +1134,276 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,67 +1411,67 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1508,7 +1585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10582560" y="5378400"/>
+          <a:off x="10583280" y="5378400"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1530,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>855360</xdr:colOff>
+      <xdr:colOff>854640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1249200</xdr:rowOff>
+      <xdr:rowOff>1248480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1545,8 +1622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1868760" y="1917720"/>
-          <a:ext cx="734760" cy="961560"/>
+          <a:off x="1869480" y="1917720"/>
+          <a:ext cx="734040" cy="960840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,465 +1817,465 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="7.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="1" width="7.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="105.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9" t="str">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10" t="str">
         <f aca="false">C10</f>
         <v>1230444 Romeu Xu</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="11" t="str">
         <f aca="false">C11</f>
         <v>1230564 Francisco Santos</v>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="11" t="str">
         <f aca="false">C12</f>
         <v>1230839 Emanuel Almeida</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="11" t="str">
         <f aca="false">C13</f>
         <v>1231274 Jorge Rodriguez</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="11" t="str">
         <f aca="false">C14</f>
         <v>1231498 Paulo Mendes</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="11" t="str">
         <f aca="false">C15</f>
         <v>All</v>
       </c>
-      <c r="J9" s="10" t="e">
+      <c r="J9" s="11" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="10" t="e">
+      <c r="K9" s="11" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17" t="n">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18" t="n">
         <f aca="false">AVERAGE(D10:K10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="14" t="n">
+      <c r="D11" s="19"/>
+      <c r="E11" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21" t="n">
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22" t="n">
         <f aca="false">AVERAGE(D11:K11)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21" t="n">
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22" t="n">
         <f aca="false">AVERAGE(D12:K12)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="14" t="n">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21" t="n">
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22" t="n">
         <f aca="false">AVERAGE(D13:K13)</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="14" t="n">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21" t="n">
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="n">
         <f aca="false">AVERAGE(D14:K14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21" t="n">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22" t="n">
         <f aca="false">AVERAGE(D15:K15)</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="25" t="n">
         <f aca="false">AVERAGE(D10:D15)</f>
         <v>3</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="25" t="n">
         <f aca="false">AVERAGE(E10:E15)</f>
         <v>5</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="25" t="n">
         <f aca="false">AVERAGE(F10:F15)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="24" t="n">
+      <c r="G16" s="25" t="n">
         <f aca="false">AVERAGE(G10:G15)</f>
         <v>5</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="25" t="n">
         <f aca="false">AVERAGE(H10:H15)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="25" t="n">
         <f aca="false">AVERAGE(I10:I15)</f>
         <v>4</v>
       </c>
-      <c r="J16" s="24" t="e">
+      <c r="J16" s="25" t="e">
         <f aca="false">AVERAGE(J10:J15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="24" t="e">
+      <c r="K16" s="25" t="e">
         <f aca="false">AVERAGE(K10:K15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="n">
+      <c r="A23" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="n">
+      <c r="A24" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="34" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="n">
+      <c r="A25" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32" t="n">
+      <c r="A26" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="n">
+      <c r="A28" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2227,1348 +2304,2216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="27.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="41" t="n">
+      <c r="E3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="42" t="n">
+      <c r="F3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="43" t="n">
+      <c r="I3" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="44" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="44" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="49" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="51" t="n">
+      <c r="C6" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="51" t="n">
+      <c r="C7" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="55" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="51" t="n">
+      <c r="C8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="55" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="51" t="n">
+      <c r="C9" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="55" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="51" t="n">
+      <c r="C10" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="55" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="51" t="n">
+      <c r="C11" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="55" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="51" t="n">
+      <c r="C12" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="55" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="51" t="n">
+      <c r="C13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="55" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="51" t="n">
+      <c r="C14" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="55" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="51" t="n">
+      <c r="C15" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="55" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="51" t="n">
+      <c r="C16" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="55" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51" t="n">
+      <c r="C17" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="55" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="51" t="n">
+      <c r="C18" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="55" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="51" t="n">
+      <c r="C19" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="55" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="51" t="n">
+      <c r="C20" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="55" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="51" t="n">
+      <c r="C21" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="55" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="51" t="n">
+      <c r="C22" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="55" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="51" t="n">
+      <c r="C23" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="55" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="51" t="n">
+      <c r="C24" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="55" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="51" t="n">
+      <c r="C25" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="55"/>
+      <c r="E25" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="48" t="s">
+      <c r="C27" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="55" t="s">
+      <c r="C28" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="58" t="s">
+      <c r="A29" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="55" t="s">
+      <c r="C29" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="51" t="n">
+      <c r="C30" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="55" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="51" t="n">
+      <c r="C31" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="55" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="55" t="s">
+      <c r="C32" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="51" t="n">
+      <c r="C33" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="55" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="55" t="s">
+      <c r="C34" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="55" t="s">
+      <c r="C35" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="55" t="s">
+      <c r="C36" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="55" t="s">
+      <c r="C37" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="58" t="s">
+      <c r="A38" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="55" t="s">
+      <c r="C38" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="55" t="s">
+      <c r="C39" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="55" t="s">
+      <c r="C40" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="55" t="s">
+      <c r="C41" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="55" t="s">
+      <c r="C42" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="55" t="s">
+      <c r="C43" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="56" t="s">
+      <c r="A44" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="55" t="s">
+      <c r="C44" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="51" t="n">
+      <c r="C45" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="56" t="s">
+      <c r="D45" s="58"/>
+      <c r="E45" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="45"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="51" t="n">
+      <c r="C50" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="56" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="58"/>
+      <c r="E52" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="51" t="n">
+      <c r="C53" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="55" t="s">
+      <c r="D53" s="58"/>
+      <c r="E53" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" s="58"/>
+      <c r="E56" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" s="58"/>
+      <c r="E61" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" s="58"/>
+      <c r="E65" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" s="58"/>
+      <c r="E66" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" s="58"/>
+      <c r="E67" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="58"/>
+      <c r="E69" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" s="58"/>
+      <c r="E71" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="E74" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" s="58"/>
+      <c r="E75" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="50.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" s="58"/>
+      <c r="E76" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="56" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3579,17 +4524,22 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:J47">
+  <conditionalFormatting sqref="E6:J45">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$C6=E$3</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E46:J76">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$C46=E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C47" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C76" type="list">
       <formula1>$E$3:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B47" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B76" type="list">
       <formula1>'Team and Self Assessment'!$C$10:$C$15</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3617,395 +4567,395 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="61" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="61" width="36.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="61" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="7.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="2" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="7.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="3" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="12" style="60" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="60" width="36.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="60" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="7.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="3" width="10.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" s="68" customFormat="true" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="63" t="str">
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" s="67" customFormat="true" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C10</f>
         <v>1230444 Romeu Xu</v>
       </c>
-      <c r="D3" s="63" t="str">
+      <c r="D3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C11</f>
         <v>1230564 Francisco Santos</v>
       </c>
-      <c r="E3" s="63" t="str">
+      <c r="E3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C12</f>
         <v>1230839 Emanuel Almeida</v>
       </c>
-      <c r="F3" s="63" t="str">
+      <c r="F3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C13</f>
         <v>1231274 Jorge Rodriguez</v>
       </c>
-      <c r="G3" s="63" t="str">
+      <c r="G3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C14</f>
         <v>1231498 Paulo Mendes</v>
       </c>
-      <c r="H3" s="63" t="str">
+      <c r="H3" s="62" t="str">
         <f aca="false">'Team and Self Assessment'!C15</f>
         <v>All</v>
       </c>
-      <c r="I3" s="63" t="e">
+      <c r="I3" s="62" t="e">
         <f aca="false">'team and self assessment'!#ref!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="63" t="e">
+      <c r="J3" s="62" t="e">
         <f aca="false">'team and self assessment'!#ref!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="64" t="n">
+      <c r="L3" s="63" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65" t="n">
+      <c r="M3" s="64" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="N3" s="65" t="n">
+      <c r="N3" s="64" t="n">
         <f aca="false">2</f>
         <v>2</v>
       </c>
-      <c r="O3" s="64" t="n">
+      <c r="O3" s="63" t="n">
         <f aca="false">3</f>
         <v>3</v>
       </c>
-      <c r="P3" s="64" t="n">
+      <c r="P3" s="63" t="n">
         <f aca="false">4</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="64" t="n">
+      <c r="Q3" s="63" t="n">
         <f aca="false">5</f>
         <v>5</v>
       </c>
-      <c r="R3" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="67" t="s">
+      <c r="R3" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="61"/>
+      <c r="T3" s="60"/>
     </row>
     <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="69" t="n">
+      <c r="A4" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="70" t="n">
+      <c r="C4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="69" t="n">
         <f aca="false">AVERAGE(C4:J4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
+      <c r="L4" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="69" t="n">
+      <c r="A5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="68" t="n">
         <v>0.2</v>
       </c>
-      <c r="C5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="70" t="n">
+      <c r="C5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="69" t="n">
         <f aca="false">AVERAGE(C5:J5)</f>
         <v>4</v>
       </c>
-      <c r="L5" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="L5" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="69" t="n">
+      <c r="A6" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="68" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="70" t="n">
+      <c r="C6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="69" t="n">
         <f aca="false">AVERAGE(C6:J6)</f>
         <v>4</v>
       </c>
-      <c r="L6" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="72"/>
+      <c r="L6" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="69" t="n">
+      <c r="A7" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="68" t="n">
         <v>0.2</v>
       </c>
-      <c r="C7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="70" t="n">
+      <c r="C7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="69" t="n">
         <f aca="false">AVERAGE(C7:J7)</f>
         <v>4</v>
       </c>
-      <c r="L7" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P7" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="71"/>
-      <c r="S7" s="72"/>
+      <c r="L7" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" s="70"/>
+      <c r="S7" s="71"/>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="73" t="n">
+      <c r="A8" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="72" t="n">
         <f aca="false">SUM(B4:B7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="n">
+      <c r="C8" s="46" t="n">
         <f aca="false">SUMPRODUCT(C4:C7,$B$4:$B$7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="45" t="n">
+      <c r="D8" s="46" t="n">
         <f aca="false">SUMPRODUCT(D4:D7,$B$4:$B$7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="45" t="n">
+      <c r="E8" s="46" t="n">
         <f aca="false">SUMPRODUCT(E4:E7,$B$4:$B$7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="45" t="n">
+      <c r="F8" s="46" t="n">
         <f aca="false">SUMPRODUCT(F4:F7,$B$4:$B$7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="45" t="n">
+      <c r="G8" s="46" t="n">
         <f aca="false">SUMPRODUCT(G4:G7,$B$4:$B$7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="45" t="n">
+      <c r="H8" s="46" t="n">
         <f aca="false">SUMPRODUCT(H4:H7,$B$4:$B$7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="45" t="n">
+      <c r="I8" s="46" t="n">
         <f aca="false">SUMPRODUCT(I4:I7,$B$4:$B$7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45" t="n">
+      <c r="J8" s="46" t="n">
         <f aca="false">SUMPRODUCT(J4:J7,$B$4:$B$7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="72"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="71"/>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="n">
+      <c r="A9" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49" t="n">
         <f aca="false">C8/5*20</f>
         <v>16</v>
       </c>
-      <c r="D9" s="48" t="n">
+      <c r="D9" s="49" t="n">
         <f aca="false">D8/5*20</f>
         <v>16</v>
       </c>
-      <c r="E9" s="48" t="n">
+      <c r="E9" s="49" t="n">
         <f aca="false">E8/5*20</f>
         <v>16</v>
       </c>
-      <c r="F9" s="48" t="n">
+      <c r="F9" s="49" t="n">
         <f aca="false">F8/5*20</f>
         <v>16</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="49" t="n">
         <f aca="false">G8/5*20</f>
         <v>16</v>
       </c>
-      <c r="H9" s="48" t="n">
+      <c r="H9" s="49" t="n">
         <f aca="false">H8/5*20</f>
         <v>0</v>
       </c>
-      <c r="I9" s="48" t="n">
+      <c r="I9" s="49" t="n">
         <f aca="false">I8/5*20</f>
         <v>0</v>
       </c>
-      <c r="J9" s="48" t="n">
+      <c r="J9" s="49" t="n">
         <f aca="false">J8/5*20</f>
         <v>0</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="75"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77"/>
+      <c r="A10" s="76"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4032,748 +4982,748 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="2" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="2" width="16.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="2" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="2" width="7.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="2" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="7.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="3" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="3" width="16.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="3" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="47.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="3" width="7.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="3" width="10.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="76"/>
+    </row>
+    <row r="3" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="77"/>
-    </row>
-    <row r="3" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="79" t="str">
+      <c r="C3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C10</f>
         <v>1230444 Romeu Xu</v>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C11</f>
         <v>1230564 Francisco Santos</v>
       </c>
-      <c r="E3" s="79" t="str">
+      <c r="E3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C12</f>
         <v>1230839 Emanuel Almeida</v>
       </c>
-      <c r="F3" s="79" t="str">
+      <c r="F3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C13</f>
         <v>1231274 Jorge Rodriguez</v>
       </c>
-      <c r="G3" s="79" t="str">
+      <c r="G3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C14</f>
         <v>1231498 Paulo Mendes</v>
       </c>
-      <c r="H3" s="79" t="str">
+      <c r="H3" s="78" t="str">
         <f aca="false">'Team and Self Assessment'!C15</f>
         <v>All</v>
       </c>
-      <c r="I3" s="79" t="e">
+      <c r="I3" s="78" t="e">
         <f aca="false">'team and self assessment'!#ref!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="79" t="e">
+      <c r="J3" s="78" t="e">
         <f aca="false">'team and self assessment'!#ref!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80" t="n">
+      <c r="L3" s="79" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M3" s="81" t="n">
+      <c r="M3" s="80" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="N3" s="81" t="n">
+      <c r="N3" s="80" t="n">
         <f aca="false">2</f>
         <v>2</v>
       </c>
-      <c r="O3" s="80" t="n">
+      <c r="O3" s="79" t="n">
         <f aca="false">3</f>
         <v>3</v>
       </c>
-      <c r="P3" s="80" t="n">
+      <c r="P3" s="79" t="n">
         <f aca="false">4</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="80" t="n">
+      <c r="Q3" s="79" t="n">
         <f aca="false">5</f>
         <v>5</v>
       </c>
-      <c r="R3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="40" t="s">
+      <c r="R3" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="69" t="n">
+      <c r="A4" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" s="51" t="n">
+      <c r="C4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="82" t="n">
+      <c r="G4" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="81" t="n">
         <f aca="false">AVERAGE(C4:J4)</f>
         <v>4.2</v>
       </c>
-      <c r="L4" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="84"/>
-      <c r="S4" s="46"/>
+      <c r="L4" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="83"/>
+      <c r="S4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="69" t="n">
+      <c r="A5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="82" t="n">
+      <c r="C5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="81" t="n">
         <f aca="false">AVERAGE(C5:J5)</f>
         <v>4</v>
       </c>
-      <c r="L5" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" s="84"/>
-      <c r="S5" s="46"/>
+      <c r="L5" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5" s="83"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="69" t="n">
+      <c r="A6" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="68" t="n">
         <v>0.05</v>
       </c>
-      <c r="C6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="82" t="n">
+      <c r="C6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="81" t="n">
         <f aca="false">AVERAGE(C6:J6)</f>
         <v>4</v>
       </c>
-      <c r="L6" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="84"/>
-      <c r="S6" s="46"/>
+      <c r="L6" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" s="83"/>
+      <c r="S6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="69" t="n">
+      <c r="A7" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="68" t="n">
         <v>0.05</v>
       </c>
-      <c r="C7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="82" t="n">
+      <c r="C7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="81" t="n">
         <f aca="false">AVERAGE(C7:J7)</f>
         <v>4</v>
       </c>
-      <c r="L7" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="46"/>
+      <c r="L7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="R7" s="83"/>
+      <c r="S7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="69" t="n">
+      <c r="A8" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" s="51" t="n">
+      <c r="C8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="51" t="n">
+      <c r="D8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="51" t="n">
+      <c r="E8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="51" t="n">
+      <c r="F8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="82" t="n">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="81" t="n">
         <f aca="false">AVERAGE(C8:J8)</f>
         <v>5</v>
       </c>
-      <c r="L8" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="N8" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="R8" s="84"/>
-      <c r="S8" s="46"/>
+      <c r="L8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="R8" s="83"/>
+      <c r="S8" s="47"/>
     </row>
     <row r="9" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="69" t="n">
+      <c r="A9" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="68" t="n">
         <v>0.05</v>
       </c>
-      <c r="C9" s="51" t="n">
+      <c r="C9" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="51" t="n">
+      <c r="D9" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="51" t="n">
+      <c r="E9" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="51" t="n">
+      <c r="F9" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="82" t="n">
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="81" t="n">
         <f aca="false">AVERAGE(C9:J9)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="R9" s="84"/>
-      <c r="S9" s="46"/>
+      <c r="L9" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="69" t="n">
+      <c r="A10" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C10" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="82" t="n">
+      <c r="C10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="81" t="n">
         <f aca="false">AVERAGE(C10:J10)</f>
         <v>4</v>
       </c>
-      <c r="L10" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="N10" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="R10" s="84"/>
-      <c r="S10" s="46"/>
+      <c r="L10" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="69" t="n">
+      <c r="A11" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="82" t="n">
+      <c r="C11" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="81" t="n">
         <f aca="false">AVERAGE(C11:J11)</f>
         <v>4</v>
       </c>
-      <c r="L11" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="N11" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="84"/>
-      <c r="S11" s="46"/>
+      <c r="L11" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="N11" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="69" t="n">
+      <c r="A12" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="82" t="n">
+      <c r="C12" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="81" t="n">
         <f aca="false">AVERAGE(C12:J12)</f>
         <v>4</v>
       </c>
-      <c r="L12" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q12" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="R12" s="84"/>
-      <c r="S12" s="46"/>
+      <c r="L12" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="R12" s="83"/>
+      <c r="S12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="69" t="n">
+      <c r="A13" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="68" t="n">
         <v>0.1</v>
       </c>
-      <c r="C13" s="51" t="n">
+      <c r="C13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="51" t="n">
+      <c r="D13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="51" t="n">
+      <c r="E13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="51" t="n">
+      <c r="F13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="82" t="n">
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="81" t="n">
         <f aca="false">AVERAGE(C13:J13)</f>
         <v>5</v>
       </c>
-      <c r="L13" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="O13" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="R13" s="84"/>
-      <c r="S13" s="46"/>
+      <c r="L13" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="N13" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="O13" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" s="83"/>
+      <c r="S13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="69" t="n">
+      <c r="A14" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="68" t="n">
         <v>0.15</v>
       </c>
-      <c r="C14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="82" t="n">
+      <c r="C14" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="81" t="n">
         <f aca="false">AVERAGE(C14:J14)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="N14" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="P14" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="46"/>
+      <c r="L14" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="N14" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="R14" s="83"/>
+      <c r="S14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="73" t="n">
+      <c r="A15" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="72" t="n">
         <f aca="false">SUM(B4:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="45" t="n">
+      <c r="C15" s="46" t="n">
         <f aca="false">SUMPRODUCT(C4:C14,$B$4:$B$14)</f>
         <v>4.15</v>
       </c>
-      <c r="D15" s="45" t="n">
+      <c r="D15" s="46" t="n">
         <f aca="false">SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
         <v>4.15</v>
       </c>
-      <c r="E15" s="45" t="n">
+      <c r="E15" s="46" t="n">
         <f aca="false">SUMPRODUCT(E4:E14,$B$4:$B$14)</f>
         <v>4.15</v>
       </c>
-      <c r="F15" s="45" t="n">
+      <c r="F15" s="46" t="n">
         <f aca="false">SUMPRODUCT(F4:F14,$B$4:$B$14)</f>
         <v>4.25</v>
       </c>
-      <c r="G15" s="45" t="n">
+      <c r="G15" s="46" t="n">
         <f aca="false">SUMPRODUCT(G4:G14,$B$4:$B$14)</f>
         <v>4.15</v>
       </c>
-      <c r="H15" s="45" t="n">
+      <c r="H15" s="46" t="n">
         <f aca="false">SUMPRODUCT(H4:H14,$B$4:$B$14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="45" t="n">
+      <c r="I15" s="46" t="n">
         <f aca="false">SUMPRODUCT(I4:I14,$B$4:$B$14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="45" t="n">
+      <c r="J15" s="46" t="n">
         <f aca="false">SUMPRODUCT(J4:J14,$B$4:$B$14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48" t="n">
+      <c r="A16" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49" t="n">
         <f aca="false">C15/5*20</f>
         <v>16.6</v>
       </c>
-      <c r="D16" s="48" t="n">
+      <c r="D16" s="49" t="n">
         <f aca="false">D15/5*20</f>
         <v>16.6</v>
       </c>
-      <c r="E16" s="48" t="n">
+      <c r="E16" s="49" t="n">
         <f aca="false">E15/5*20</f>
         <v>16.6</v>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="49" t="n">
         <f aca="false">F15/5*20</f>
         <v>17</v>
       </c>
-      <c r="G16" s="48" t="n">
+      <c r="G16" s="49" t="n">
         <f aca="false">G15/5*20</f>
         <v>16.6</v>
       </c>
-      <c r="H16" s="48" t="n">
+      <c r="H16" s="49" t="n">
         <f aca="false">H15/5*20</f>
         <v>0</v>
       </c>
-      <c r="I16" s="48" t="n">
+      <c r="I16" s="49" t="n">
         <f aca="false">I15/5*20</f>
         <v>0</v>
       </c>
-      <c r="J16" s="48" t="n">
+      <c r="J16" s="49" t="n">
         <f aca="false">J15/5*20</f>
         <v>0</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="77"/>
+      <c r="A17" s="76"/>
     </row>
   </sheetData>
   <dataValidations count="1">
